--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -37,25 +37,25 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;yes&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
     <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
@@ -1666,10 +1666,10 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.93"/>
@@ -1698,417 +1698,415 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,7 +2117,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,7 +2150,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,7 +2161,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,7 +2205,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,7 +2216,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +2243,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,7 +2254,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,7 +2265,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,7 +2276,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,7 +2287,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,7 +2298,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,7 +2309,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2320,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,7 +2331,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,7 +2342,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,7 +2353,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,7 +2364,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,7 +2375,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,7 +2386,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,7 +2397,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,7 +2408,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2419,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,7 +2430,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,7 +2441,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,7 +2452,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,7 +2463,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,7 +2474,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,7 +2485,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,7 +2496,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,7 +2507,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2518,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,7 +2529,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,7 +2540,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,7 +2551,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2562,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,7 +2573,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,7 +2584,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,7 +2595,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,7 +2606,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2617,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,7 +2628,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,7 +2639,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,7 +2650,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,7 +2661,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,7 +2672,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,7 +2683,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,7 +2694,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2710,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,7 +2732,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2743,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,7 +2754,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,7 +2765,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +2787,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +2798,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,7 +2809,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,7 +2820,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +2831,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,7 +2842,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +2853,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,7 +2864,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,7 +2875,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,7 +2886,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,7 +2897,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,7 +2908,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,7 +2919,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,7 +2930,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,7 +2941,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,7 +2952,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,7 +2963,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,7 +2974,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,7 +2985,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +2996,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3007,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3018,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,7 +3029,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3040,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3051,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,7 +3062,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,7 +3073,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,7 +3084,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,7 +3095,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,7 +3110,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,7 +3121,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +3132,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3143,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,7 +3154,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,7 +3165,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,7 +3176,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3187,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3198,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,7 +3209,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3220,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,7 +3231,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,7 +3242,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,7 +3253,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,7 +3264,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3275,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3286,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,7 +3297,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3308,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,7 +3319,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,7 +3330,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,7 +3341,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,7 +3352,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3363,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3374,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3385,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +3396,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3407,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,7 +3418,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,7 +3429,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,7 +3440,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3451,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,7 +3462,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,7 +3473,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,7 +3484,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,7 +3495,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,7 +3510,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +3521,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,7 +3532,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,7 +3543,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,7 +3554,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,7 +3565,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,7 +3576,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,7 +3587,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3598,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,7 +3609,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,7 +3620,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,7 +3631,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,7 +3642,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,7 +3653,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,7 +3664,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,7 +3675,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +3686,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,7 +3697,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,7 +3708,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,7 +3719,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,7 +3730,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,7 +3741,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,7 +3752,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,7 +3763,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,7 +3774,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,7 +3785,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +3796,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +3807,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,7 +3818,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +3829,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,7 +3840,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,7 +3851,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3862,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,7 +3873,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,7 +3884,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +3905,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,7 +3916,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,7 +3927,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,7 +3938,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,7 +3949,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,7 +3960,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,7 +3971,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,7 +3982,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +3993,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +4004,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,7 +4015,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,7 +4026,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,7 +4037,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,7 +4048,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +4059,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,7 +4070,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,7 +4081,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,7 +4092,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,7 +4103,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,7 +4114,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,7 +4125,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,7 +4136,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,7 +4155,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +4166,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,7 +4177,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +4188,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4199,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,7 +4210,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,7 +4221,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,7 +4232,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,7 +4243,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4254,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,7 +4265,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,7 +4276,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4289,7 +4287,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4300,7 +4298,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +4309,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4320,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4333,7 +4331,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,7 +4342,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,7 +4353,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,7 +4364,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,7 +4375,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4386,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,7 +4397,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,7 +4408,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,7 +4419,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4430,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,7 +4441,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4452,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,7 +4463,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,7 +4474,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,7 +4485,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,7 +4496,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4507,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +4518,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +4529,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +4548,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,7 +4559,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,7 +4570,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,7 +4581,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,7 +4592,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,7 +4603,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4614,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,7 +4625,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4636,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,7 +4647,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,7 +4658,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,7 +4669,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,7 +4680,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,7 +4691,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +4702,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,7 +4713,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,7 +4724,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,7 +4735,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,7 +4746,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,7 +4765,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,7 +4776,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,7 +4787,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +4798,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,7 +4809,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,7 +4820,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,7 +4831,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4844,7 +4842,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4855,7 +4853,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,7 +4864,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,7 +4875,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,7 +4886,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,7 +4897,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4908,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,7 +4919,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,7 +4930,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,7 +4941,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,7 +4952,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,7 +4963,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +4974,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,7 +4985,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +4996,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,7 +5007,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,7 +5018,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,7 +5029,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,7 +5040,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5051,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5062,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,7 +5073,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,7 +5084,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5097,7 +5095,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,7 +5106,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,7 +5117,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,7 +5128,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +5139,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,7 +5150,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,7 +5161,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,7 +5172,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,7 +5191,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,7 +5202,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,7 +5213,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5226,7 +5224,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5235,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,7 +5246,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,7 +5257,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5270,7 +5268,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5281,7 +5279,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5292,7 +5290,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5303,7 +5301,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,7 +5312,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +5323,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,7 +5334,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,7 +5345,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,7 +5356,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,7 +5367,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,7 +5378,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,7 +5397,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,7 +5408,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +5419,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5430,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,7 +5441,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,7 +5452,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,7 +5463,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5474,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,7 +5485,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,7 +5496,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,7 +5507,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5518,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5529,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,7 +5540,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,7 +5551,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,7 +5562,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,7 +5573,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,7 +5584,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,7 +5595,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +5606,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,7 +5617,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +5628,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,7 +5639,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5652,7 +5650,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,7 +5661,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,7 +5672,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,7 +5683,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5694,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,7 +5705,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +5716,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5729,7 +5727,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,7 +5738,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,7 +5749,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5762,7 +5760,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,7 +5771,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,7 +5782,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +5793,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5806,7 +5804,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,7 +5815,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,7 +5826,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,7 +5837,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,7 +5848,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,7 +5859,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,7 +5870,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5891,7 +5889,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,7 +5900,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,7 +5911,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5924,7 +5922,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,7 +5933,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,7 +5944,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,7 +5963,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +5974,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5987,7 +5985,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,7 +5996,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,7 +6007,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,7 +6018,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,7 +6029,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,7 +6040,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6053,7 +6051,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,7 +6062,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,7 +6073,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,7 +6084,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6097,7 +6095,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,7 +6106,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6119,7 +6117,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,7 +6128,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,7 +6139,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,7 +6150,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,7 +6161,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,7 +6172,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,7 +6183,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,7 +6194,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6207,7 +6205,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,7 +6216,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,7 +6227,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,7 +6238,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6251,7 +6249,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6262,7 +6260,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6273,7 +6271,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,7 +6282,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6295,7 +6293,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6306,7 +6304,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,7 +6315,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,7 +6326,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,7 +6337,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6350,7 +6348,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6361,7 +6359,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6372,7 +6370,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,7 +6381,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6394,7 +6392,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6405,7 +6403,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6414,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,7 +6425,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,7 +6436,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,7 +6447,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6460,7 +6458,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,7 +6469,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,7 +6480,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6493,7 +6491,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,7 +6502,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,7 +6513,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,7 +6524,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,7 +6535,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6548,7 +6546,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,7 +6557,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,7 +6568,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,7 +6579,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6592,7 +6590,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,7 +6601,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,7 +6612,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6634,7 +6632,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,7 +6643,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,7 +6654,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,7 +6665,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,7 +6676,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6689,7 +6687,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6700,7 +6698,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,7 +6709,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6722,7 +6720,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6731,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -55,10 +55,10 @@
     <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
     <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
@@ -1666,10 +1666,10 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.93"/>
@@ -1741,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,10 +1749,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,7 +1807,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1818,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1829,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1851,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,7 +1873,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1895,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,7 +1906,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,7 +1928,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +1939,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +1961,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,7 +1983,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,7 +1994,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2005,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2016,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,7 +2027,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,7 +2038,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,7 +2049,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2060,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,7 +2071,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,7 +2082,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,20 +2093,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,7 +2117,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,7 +2150,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +2161,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2205,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2216,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,7 +2243,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2254,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,7 +2265,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2276,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,7 +2287,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,7 +2298,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2309,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2320,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2331,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +2342,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2353,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +2364,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2375,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2386,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,7 +2397,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2408,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,7 +2419,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2430,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2441,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2452,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2463,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,7 +2474,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2485,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2496,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2507,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2518,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2529,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2540,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,7 +2551,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2562,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,7 +2573,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,7 +2584,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,7 +2595,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2606,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2617,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2628,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,7 +2639,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,7 +2650,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,7 +2661,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2672,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2683,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2694,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2710,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,7 +2732,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,7 +2743,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,7 +2754,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,7 +2765,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,7 +2787,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2798,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,7 +2809,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,7 +2820,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,7 +2831,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,7 +2842,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,7 +2853,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2864,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2875,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +2886,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2897,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2908,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,7 +2919,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,7 +2930,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +2941,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,7 +2952,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +2963,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +2974,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +2985,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +2996,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3007,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,7 +3018,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3029,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,7 +3040,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,7 +3051,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3062,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,7 +3073,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,7 +3084,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,7 +3095,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3110,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3121,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3132,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,7 +3143,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,7 +3154,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3165,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +3176,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,7 +3187,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +3198,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,7 +3209,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,7 +3220,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3231,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,7 +3242,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3253,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3264,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,7 +3275,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3286,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3297,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,7 +3308,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3319,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3330,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3341,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3352,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3363,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3374,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3385,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,7 +3396,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3407,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3418,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3429,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3440,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,7 +3451,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3462,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3473,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3484,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,7 +3495,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,7 +3510,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,7 +3521,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,7 +3532,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,7 +3543,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,7 +3554,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,7 +3565,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3576,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,7 +3587,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,7 +3598,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3609,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,7 +3620,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,7 +3631,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,7 +3642,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,7 +3653,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,7 +3664,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,7 +3675,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,7 +3686,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,7 +3697,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,7 +3708,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,7 +3719,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,7 +3730,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +3741,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,7 +3752,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,7 +3763,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,7 +3774,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +3785,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,7 +3796,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3807,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,7 +3818,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +3829,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +3840,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,7 +3851,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,7 +3862,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,7 +3873,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,7 +3884,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,7 +3905,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,7 +3916,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,7 +3927,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,7 +3938,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,7 +3949,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +3960,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,7 +3971,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +3982,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,7 +3993,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,7 +4004,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4015,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,7 +4026,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,7 +4037,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,7 +4048,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,7 +4059,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4070,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,7 +4081,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,7 +4092,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,7 +4103,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,7 +4114,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,7 +4125,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,7 +4136,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,7 +4155,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +4166,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,7 +4177,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4188,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,7 +4199,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4210,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4221,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4232,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4243,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +4254,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,7 +4265,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4276,7 +4276,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,7 +4287,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4298,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4309,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4320,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4331,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4342,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,7 +4353,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +4364,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,7 +4375,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +4386,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +4397,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4408,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4419,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4430,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4441,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,7 +4452,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4463,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +4474,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4485,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4496,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4507,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4518,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,7 +4529,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +4548,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,7 +4559,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +4570,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,7 +4581,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +4592,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,7 +4603,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +4614,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,7 +4625,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,7 +4636,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4647,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4658,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,7 +4669,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4680,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,7 +4691,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4702,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4713,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4724,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,7 +4735,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,7 +4746,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4765,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4776,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4787,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,7 +4798,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,7 +4809,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +4820,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,7 +4831,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4842,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +4853,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4864,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,7 +4875,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,7 +4886,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,7 +4897,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,7 +4908,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,7 +4919,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,7 +4930,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +4941,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4952,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4963,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,7 +4974,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,7 +4985,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +4996,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,7 +5007,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +5018,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,7 +5029,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5040,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,7 +5051,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +5062,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,7 +5073,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,7 +5084,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +5095,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,7 +5106,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5117,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5128,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5139,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +5150,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,7 +5161,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,7 +5172,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,7 +5191,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5202,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5213,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5224,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,7 +5235,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5246,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5257,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5268,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,7 +5279,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,7 +5290,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5301,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +5312,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,7 +5323,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,7 +5334,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,7 +5345,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,7 +5356,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,7 +5367,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,7 +5378,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5397,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5408,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +5419,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +5430,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,7 +5441,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5452,7 +5452,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,7 +5463,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,7 +5474,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,7 +5485,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +5496,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,7 +5507,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,7 +5518,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,7 +5529,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5540,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,7 +5551,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,7 +5562,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5573,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +5584,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,7 +5595,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,7 +5606,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +5617,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5628,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5639,7 +5639,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,7 +5650,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5661,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +5672,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +5683,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +5694,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,7 +5705,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,7 +5716,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +5727,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,7 +5738,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,7 +5749,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5760,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +5771,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,7 +5782,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,7 +5793,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +5804,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +5815,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,7 +5826,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +5837,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +5848,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,7 +5859,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +5870,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5889,7 +5889,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,7 +5900,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,7 +5911,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,7 +5922,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +5933,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +5944,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,7 +5963,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,7 +5974,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,7 +5985,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,7 +5996,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,7 +6007,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,7 +6018,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,7 +6029,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,7 +6040,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,7 +6051,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,7 +6062,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,7 +6073,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6084,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6095,7 +6095,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,7 +6106,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,7 +6117,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6128,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +6139,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,7 +6150,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,7 +6161,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,7 +6172,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,7 +6183,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,7 +6194,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,7 +6205,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,7 +6216,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6227,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,7 +6238,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,7 +6249,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,7 +6260,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6271,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6282,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,7 +6293,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6304,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,7 +6315,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,7 +6326,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,7 +6337,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,7 +6348,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,7 +6359,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,7 +6370,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,7 +6381,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,7 +6392,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,7 +6403,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,7 +6414,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6425,7 +6425,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,7 +6436,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,7 +6447,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6458,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,7 +6469,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6480,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,7 +6491,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,7 +6502,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,7 +6513,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6524,7 +6524,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,7 +6535,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,7 +6546,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,7 +6557,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6568,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6579,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +6590,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,7 +6601,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,7 +6612,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6632,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +6643,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6654,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,7 +6665,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,7 +6676,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,7 +6687,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,7 +6698,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,7 +6709,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,7 +6720,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,7 +6731,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -58,10 +58,10 @@
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
   </si>
   <si>
     <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
@@ -1666,10 +1666,10 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.93"/>
@@ -1752,7 +1752,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,10 +1760,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,7 +1807,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1818,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1829,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1851,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,7 +1873,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1895,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,7 +1906,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,7 +1928,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +1939,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +1961,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,7 +1983,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,7 +1994,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2005,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2016,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,7 +2027,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,7 +2038,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,7 +2049,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2060,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,7 +2071,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,7 +2082,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,20 +2093,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,7 +2117,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,7 +2150,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +2161,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2205,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2216,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,7 +2243,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2254,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,7 +2265,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2276,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,7 +2287,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,7 +2298,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2309,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2320,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2331,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +2342,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2353,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +2364,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2375,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2386,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,7 +2397,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2408,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,7 +2419,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2430,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2441,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2452,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2463,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,7 +2474,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2485,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2496,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2507,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2518,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2529,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2540,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,7 +2551,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2562,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,7 +2573,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,7 +2584,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,7 +2595,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2606,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2617,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2628,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,7 +2639,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,7 +2650,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,7 +2661,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2672,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2683,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2694,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2710,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,7 +2732,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,7 +2743,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,7 +2754,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,7 +2765,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,7 +2787,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2798,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,7 +2809,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,7 +2820,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,7 +2831,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,7 +2842,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,7 +2853,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2864,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2875,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +2886,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2897,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2908,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,7 +2919,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,7 +2930,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +2941,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,7 +2952,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +2963,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +2974,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +2985,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +2996,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3007,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,7 +3018,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3029,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,7 +3040,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,7 +3051,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3062,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,7 +3073,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,7 +3084,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,7 +3095,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3110,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3121,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3132,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,7 +3143,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,7 +3154,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3165,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +3176,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,7 +3187,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +3198,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,7 +3209,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,7 +3220,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3231,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,7 +3242,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3253,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3264,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,7 +3275,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3286,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3297,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,7 +3308,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3319,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3330,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3341,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3352,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3363,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3374,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3385,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,7 +3396,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3407,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3418,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3429,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3440,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,7 +3451,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3462,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3473,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3484,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,7 +3495,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,7 +3510,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,7 +3521,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,7 +3532,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,7 +3543,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,7 +3554,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,7 +3565,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3576,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,7 +3587,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,7 +3598,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3609,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,7 +3620,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,7 +3631,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,7 +3642,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,7 +3653,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,7 +3664,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,7 +3675,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,7 +3686,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,7 +3697,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,7 +3708,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,7 +3719,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,7 +3730,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +3741,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,7 +3752,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,7 +3763,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,7 +3774,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +3785,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,7 +3796,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3807,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,7 +3818,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +3829,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +3840,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,7 +3851,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,7 +3862,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,7 +3873,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,7 +3884,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,7 +3905,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,7 +3916,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,7 +3927,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,7 +3938,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,7 +3949,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +3960,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,7 +3971,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +3982,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,7 +3993,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,7 +4004,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4015,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,7 +4026,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,7 +4037,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,7 +4048,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,7 +4059,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4070,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,7 +4081,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,7 +4092,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,7 +4103,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,7 +4114,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,7 +4125,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,7 +4136,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,7 +4155,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +4166,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,7 +4177,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4188,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,7 +4199,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4210,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4221,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4232,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4243,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +4254,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,7 +4265,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4276,7 +4276,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,7 +4287,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4298,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4309,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4320,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4331,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4342,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,7 +4353,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +4364,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,7 +4375,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +4386,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +4397,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4408,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4419,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4430,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4441,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,7 +4452,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4463,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +4474,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4485,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4496,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4507,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4518,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,7 +4529,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +4548,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,7 +4559,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +4570,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,7 +4581,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +4592,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,7 +4603,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +4614,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,7 +4625,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,7 +4636,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4647,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4658,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,7 +4669,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4680,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,7 +4691,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4702,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4713,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4724,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,7 +4735,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,7 +4746,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4765,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4776,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4787,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,7 +4798,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,7 +4809,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +4820,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,7 +4831,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4842,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +4853,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4864,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,7 +4875,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,7 +4886,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,7 +4897,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,7 +4908,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,7 +4919,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,7 +4930,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +4941,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4952,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4963,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,7 +4974,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,7 +4985,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +4996,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,7 +5007,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +5018,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,7 +5029,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5040,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,7 +5051,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +5062,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,7 +5073,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,7 +5084,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +5095,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,7 +5106,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5117,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5128,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5139,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +5150,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,7 +5161,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,7 +5172,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,7 +5191,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5202,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5213,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5224,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,7 +5235,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5246,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5257,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5268,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,7 +5279,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,7 +5290,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5301,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +5312,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,7 +5323,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,7 +5334,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,7 +5345,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,7 +5356,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,7 +5367,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,7 +5378,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5397,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5408,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +5419,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +5430,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,7 +5441,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5452,7 +5452,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,7 +5463,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,7 +5474,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,7 +5485,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +5496,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,7 +5507,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,7 +5518,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,7 +5529,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5540,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,7 +5551,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,7 +5562,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5573,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +5584,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,7 +5595,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,7 +5606,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +5617,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5628,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5639,7 +5639,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,7 +5650,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5661,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +5672,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +5683,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +5694,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,7 +5705,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,7 +5716,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +5727,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,7 +5738,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,7 +5749,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5760,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +5771,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,7 +5782,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,7 +5793,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +5804,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +5815,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,7 +5826,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +5837,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +5848,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,7 +5859,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +5870,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5889,7 +5889,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,7 +5900,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,7 +5911,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,7 +5922,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +5933,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +5944,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,7 +5963,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,7 +5974,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,7 +5985,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,7 +5996,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,7 +6007,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,7 +6018,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,7 +6029,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,7 +6040,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,7 +6051,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,7 +6062,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,7 +6073,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6084,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6095,7 +6095,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,7 +6106,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,7 +6117,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6128,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +6139,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,7 +6150,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,7 +6161,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,7 +6172,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,7 +6183,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,7 +6194,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,7 +6205,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,7 +6216,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6227,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,7 +6238,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,7 +6249,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,7 +6260,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6271,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6282,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,7 +6293,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6304,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,7 +6315,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,7 +6326,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,7 +6337,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,7 +6348,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,7 +6359,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,7 +6370,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,7 +6381,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,7 +6392,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,7 +6403,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,7 +6414,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6425,7 +6425,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,7 +6436,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,7 +6447,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6458,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,7 +6469,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6480,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,7 +6491,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,7 +6502,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,7 +6513,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6524,7 +6524,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,7 +6535,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,7 +6546,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,7 +6557,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6568,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6579,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +6590,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,7 +6601,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,7 +6612,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6632,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +6643,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6654,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,7 +6665,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,7 +6676,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,7 +6687,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,7 +6698,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,7 +6709,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,7 +6720,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,7 +6731,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">Tough?</t>
+    <t xml:space="preserve">Revise?</t>
   </si>
   <si>
     <t xml:space="preserve">Github Link</t>
@@ -1688,10 +1688,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.46"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -76,10 +76,10 @@
     <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
@@ -1688,10 +1688,10 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.46"/>
@@ -1841,7 +1841,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
@@ -1852,10 +1855,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
@@ -1869,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>10</v>
@@ -1883,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>10</v>
@@ -1897,7 +1900,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>10</v>
@@ -1911,7 +1914,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>10</v>
@@ -1925,7 +1928,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>10</v>
@@ -1939,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>10</v>
@@ -1953,7 +1956,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>10</v>
@@ -1967,7 +1970,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>10</v>
@@ -1981,7 +1984,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>10</v>
@@ -1995,7 +1998,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>10</v>
@@ -2009,7 +2012,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>10</v>
@@ -2023,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>10</v>
@@ -2037,7 +2040,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>10</v>
@@ -2051,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>10</v>
@@ -2065,7 +2068,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>10</v>
@@ -2079,7 +2082,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>10</v>
@@ -2093,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>10</v>
@@ -2107,7 +2110,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>10</v>
@@ -2121,7 +2124,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>10</v>
@@ -2135,7 +2138,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>10</v>
@@ -2149,7 +2152,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>10</v>
@@ -2163,7 +2166,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>10</v>
@@ -2177,7 +2180,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>10</v>
@@ -2191,7 +2194,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>10</v>
@@ -2205,7 +2208,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>10</v>
@@ -2219,7 +2222,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>10</v>
@@ -2233,7 +2236,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>10</v>
@@ -2242,14 +2245,14 @@
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9"/>
       <c r="C42" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2263,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,7 +2274,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2282,7 +2285,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,7 +2296,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2307,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,7 +2318,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +2329,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,7 +2340,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +2351,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,7 +2362,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2378,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2389,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,7 +2400,7 @@
         <v>61</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2411,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,7 +2422,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2433,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2444,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2455,7 @@
         <v>66</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2466,7 @@
         <v>67</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,7 +2477,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2488,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2499,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2510,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2521,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2532,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2543,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,7 +2554,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2565,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,7 +2576,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,7 +2587,7 @@
         <v>78</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,7 +2598,7 @@
         <v>79</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2609,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2620,7 @@
         <v>81</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2631,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,7 +2642,7 @@
         <v>83</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,7 +2653,7 @@
         <v>84</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,7 +2664,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2675,7 @@
         <v>86</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2686,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2697,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2708,7 @@
         <v>89</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,7 +2719,7 @@
         <v>90</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,7 +2730,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,7 +2741,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,7 +2752,7 @@
         <v>93</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,7 +2763,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,7 +2774,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2785,7 @@
         <v>96</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,7 +2796,7 @@
         <v>97</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +2807,7 @@
         <v>98</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,7 +2818,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +2829,7 @@
         <v>100</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,7 +2840,7 @@
         <v>101</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,7 +2856,7 @@
         <v>103</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2867,7 @@
         <v>104</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2878,7 @@
         <v>105</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +2889,7 @@
         <v>106</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2900,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2911,7 @@
         <v>108</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,7 +2922,7 @@
         <v>109</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,7 +2933,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +2944,7 @@
         <v>111</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,7 +2955,7 @@
         <v>112</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +2966,7 @@
         <v>113</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +2977,7 @@
         <v>114</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +2988,7 @@
         <v>115</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +2999,7 @@
         <v>116</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3010,7 @@
         <v>117</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,7 +3021,7 @@
         <v>118</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3032,7 @@
         <v>119</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,7 +3043,7 @@
         <v>120</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,7 +3054,7 @@
         <v>121</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3065,7 @@
         <v>122</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,7 +3076,7 @@
         <v>123</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,7 +3087,7 @@
         <v>124</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,7 +3098,7 @@
         <v>125</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,7 +3109,7 @@
         <v>126</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,7 +3120,7 @@
         <v>127</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,7 +3142,7 @@
         <v>129</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3153,7 @@
         <v>130</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,7 +3164,7 @@
         <v>131</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,7 +3175,7 @@
         <v>132</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3186,7 @@
         <v>133</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,7 +3197,7 @@
         <v>134</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,7 +3208,7 @@
         <v>135</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,7 +3219,7 @@
         <v>136</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,7 +3230,7 @@
         <v>137</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,7 +3241,7 @@
         <v>138</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3256,7 @@
         <v>140</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3267,7 @@
         <v>141</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,7 +3278,7 @@
         <v>142</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3289,7 @@
         <v>143</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3300,7 @@
         <v>144</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,7 +3311,7 @@
         <v>145</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3322,7 @@
         <v>146</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3333,7 @@
         <v>147</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3344,7 @@
         <v>148</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3355,7 @@
         <v>149</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3366,7 @@
         <v>150</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3377,7 @@
         <v>151</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3388,7 @@
         <v>152</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,7 +3399,7 @@
         <v>153</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3410,7 @@
         <v>154</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3421,7 @@
         <v>155</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3432,7 @@
         <v>156</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3443,7 @@
         <v>157</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,7 +3454,7 @@
         <v>158</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3465,7 @@
         <v>159</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3476,7 @@
         <v>160</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3487,7 @@
         <v>161</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,7 +3498,7 @@
         <v>162</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,7 +3509,7 @@
         <v>163</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,7 +3520,7 @@
         <v>164</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3531,7 @@
         <v>165</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,7 +3542,7 @@
         <v>166</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +3553,7 @@
         <v>167</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,7 +3564,7 @@
         <v>168</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,7 +3575,7 @@
         <v>169</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,7 +3586,7 @@
         <v>170</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +3597,7 @@
         <v>171</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,7 +3608,7 @@
         <v>172</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,7 +3619,7 @@
         <v>173</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,7 +3630,7 @@
         <v>174</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3641,7 @@
         <v>175</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,7 +3656,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,7 +3667,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,7 +3678,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,7 +3689,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,7 +3700,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,7 +3711,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,7 +3722,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,7 +3733,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +3744,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,7 +3755,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,7 +3766,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,7 +3777,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +3788,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,7 +3799,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3810,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,7 +3821,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +3832,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +3843,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,7 +3854,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,7 +3865,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,7 +3876,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,7 +3887,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3895,7 +3898,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,7 +3909,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,7 +3920,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3931,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,7 +3942,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,7 +3953,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,7 +3964,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,7 +3975,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,7 +3986,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,7 +3997,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,7 +4008,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,7 +4019,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,7 +4030,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,7 +4051,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,7 +4062,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4073,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,7 +4084,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,7 +4095,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,7 +4106,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,7 +4117,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,7 +4128,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,7 +4139,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,7 +4150,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,7 +4161,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,7 +4172,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,7 +4183,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,7 +4194,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4205,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,7 +4216,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,7 +4227,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,7 +4238,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +4249,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,7 +4260,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,7 +4271,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,7 +4282,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4301,7 @@
         <v>236</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4312,7 @@
         <v>237</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4323,7 @@
         <v>238</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4334,7 @@
         <v>239</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4345,7 @@
         <v>240</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,7 +4356,7 @@
         <v>241</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +4367,7 @@
         <v>242</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,7 +4378,7 @@
         <v>243</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +4389,7 @@
         <v>244</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +4400,7 @@
         <v>245</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4411,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4422,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4433,7 @@
         <v>248</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4444,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,7 +4455,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4466,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +4477,7 @@
         <v>252</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4488,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4499,7 @@
         <v>254</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4510,7 @@
         <v>255</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4521,7 @@
         <v>256</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,7 +4532,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4543,7 @@
         <v>258</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4554,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +4565,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4576,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4587,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,7 +4598,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4609,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4620,7 @@
         <v>265</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4631,7 @@
         <v>266</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4642,7 @@
         <v>267</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,7 +4653,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +4664,7 @@
         <v>92</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4675,7 @@
         <v>269</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,7 +4694,7 @@
         <v>271</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4705,7 @@
         <v>272</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4716,7 @@
         <v>273</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4727,7 @@
         <v>274</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,7 +4738,7 @@
         <v>275</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,7 +4749,7 @@
         <v>276</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4760,7 @@
         <v>277</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +4771,7 @@
         <v>278</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,7 +4782,7 @@
         <v>279</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,7 +4793,7 @@
         <v>280</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,7 +4804,7 @@
         <v>281</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,7 +4815,7 @@
         <v>282</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,7 +4826,7 @@
         <v>283</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,7 +4837,7 @@
         <v>284</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,7 +4848,7 @@
         <v>285</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4859,7 @@
         <v>286</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,7 +4870,7 @@
         <v>287</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,7 +4881,7 @@
         <v>288</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,7 +4892,7 @@
         <v>289</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,7 +4911,7 @@
         <v>291</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,7 +4922,7 @@
         <v>292</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,7 +4933,7 @@
         <v>293</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +4944,7 @@
         <v>294</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4955,7 @@
         <v>295</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4966,7 @@
         <v>296</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,7 +4977,7 @@
         <v>297</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,7 +4988,7 @@
         <v>298</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +4999,7 @@
         <v>299</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,7 +5010,7 @@
         <v>300</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +5021,7 @@
         <v>301</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,7 +5032,7 @@
         <v>302</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5043,7 @@
         <v>303</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,7 +5054,7 @@
         <v>304</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +5065,7 @@
         <v>305</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,7 +5076,7 @@
         <v>306</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,7 +5087,7 @@
         <v>307</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +5098,7 @@
         <v>308</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,7 +5109,7 @@
         <v>309</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5120,7 @@
         <v>310</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5131,7 @@
         <v>311</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5142,7 @@
         <v>312</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +5153,7 @@
         <v>313</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,7 +5164,7 @@
         <v>314</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,7 +5175,7 @@
         <v>315</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,7 +5186,7 @@
         <v>316</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,7 +5197,7 @@
         <v>317</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,7 +5208,7 @@
         <v>318</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5219,7 @@
         <v>319</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,7 +5230,7 @@
         <v>320</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,7 +5241,7 @@
         <v>321</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,7 +5252,7 @@
         <v>322</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +5263,7 @@
         <v>323</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,7 +5274,7 @@
         <v>324</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5282,7 +5285,7 @@
         <v>325</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5296,7 @@
         <v>326</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5307,7 @@
         <v>327</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,7 +5318,7 @@
         <v>328</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,7 +5337,7 @@
         <v>330</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,7 +5348,7 @@
         <v>331</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,7 +5359,7 @@
         <v>332</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,7 +5370,7 @@
         <v>333</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,7 +5381,7 @@
         <v>334</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,7 +5392,7 @@
         <v>335</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5403,7 @@
         <v>336</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,7 +5414,7 @@
         <v>337</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +5425,7 @@
         <v>338</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5436,7 @@
         <v>339</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,7 +5447,7 @@
         <v>340</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,7 +5458,7 @@
         <v>341</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,7 +5469,7 @@
         <v>342</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,7 +5480,7 @@
         <v>343</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5491,7 @@
         <v>344</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,7 +5502,7 @@
         <v>345</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,7 +5513,7 @@
         <v>346</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,7 +5524,7 @@
         <v>347</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5543,7 @@
         <v>349</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,7 +5554,7 @@
         <v>350</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,7 +5565,7 @@
         <v>351</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5576,7 @@
         <v>352</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +5587,7 @@
         <v>353</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,7 +5598,7 @@
         <v>354</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,7 +5609,7 @@
         <v>355</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +5620,7 @@
         <v>356</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5631,7 @@
         <v>357</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5639,7 +5642,7 @@
         <v>358</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,7 +5653,7 @@
         <v>359</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5664,7 @@
         <v>360</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +5675,7 @@
         <v>361</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +5686,7 @@
         <v>362</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +5697,7 @@
         <v>363</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,7 +5708,7 @@
         <v>364</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,7 +5719,7 @@
         <v>365</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +5730,7 @@
         <v>366</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,7 +5741,7 @@
         <v>367</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,7 +5752,7 @@
         <v>368</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5763,7 @@
         <v>369</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +5774,7 @@
         <v>370</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,7 +5785,7 @@
         <v>371</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,7 +5796,7 @@
         <v>372</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +5807,7 @@
         <v>373</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +5818,7 @@
         <v>374</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,7 +5829,7 @@
         <v>375</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +5840,7 @@
         <v>376</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +5851,7 @@
         <v>377</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,7 +5862,7 @@
         <v>378</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +5873,7 @@
         <v>379</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,7 +5884,7 @@
         <v>380</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,7 +5895,7 @@
         <v>381</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,7 +5906,7 @@
         <v>382</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,7 +5917,7 @@
         <v>382</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,7 +5928,7 @@
         <v>383</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +5939,7 @@
         <v>384</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5947,7 +5950,7 @@
         <v>385</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,7 +5961,7 @@
         <v>386</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5969,7 +5972,7 @@
         <v>387</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,7 +5983,7 @@
         <v>388</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,7 +5994,7 @@
         <v>389</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6002,7 +6005,7 @@
         <v>390</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,7 +6016,7 @@
         <v>391</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,7 +6035,7 @@
         <v>393</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,7 +6046,7 @@
         <v>394</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,7 +6057,7 @@
         <v>395</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,7 +6068,7 @@
         <v>94</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,7 +6079,7 @@
         <v>396</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6087,7 +6090,7 @@
         <v>397</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,7 +6109,7 @@
         <v>399</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,7 +6120,7 @@
         <v>400</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6131,7 @@
         <v>401</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +6142,7 @@
         <v>402</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,7 +6153,7 @@
         <v>403</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,7 +6164,7 @@
         <v>404</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,7 +6175,7 @@
         <v>405</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,7 +6186,7 @@
         <v>278</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,7 +6197,7 @@
         <v>406</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,7 +6208,7 @@
         <v>407</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,7 +6219,7 @@
         <v>408</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6230,7 @@
         <v>409</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,7 +6241,7 @@
         <v>410</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,7 +6252,7 @@
         <v>411</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,7 +6263,7 @@
         <v>412</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6274,7 @@
         <v>413</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6285,7 @@
         <v>414</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,7 +6296,7 @@
         <v>415</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6307,7 @@
         <v>416</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,7 +6318,7 @@
         <v>417</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,7 +6329,7 @@
         <v>418</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,7 +6340,7 @@
         <v>419</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,7 +6351,7 @@
         <v>420</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,7 +6362,7 @@
         <v>421</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,7 +6373,7 @@
         <v>422</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,7 +6384,7 @@
         <v>423</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,7 +6395,7 @@
         <v>424</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,7 +6406,7 @@
         <v>425</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,7 +6417,7 @@
         <v>426</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6425,7 +6428,7 @@
         <v>427</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,7 +6439,7 @@
         <v>428</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,7 +6450,7 @@
         <v>429</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6461,7 @@
         <v>430</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,7 +6472,7 @@
         <v>431</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6483,7 @@
         <v>432</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,7 +6494,7 @@
         <v>433</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,7 +6505,7 @@
         <v>434</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,7 +6516,7 @@
         <v>435</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6524,7 +6527,7 @@
         <v>436</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,7 +6538,7 @@
         <v>437</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,7 +6549,7 @@
         <v>438</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,7 +6560,7 @@
         <v>439</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6571,7 @@
         <v>440</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6582,7 @@
         <v>441</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +6593,7 @@
         <v>442</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,7 +6604,7 @@
         <v>443</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,7 +6615,7 @@
         <v>444</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,7 +6626,7 @@
         <v>445</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6634,7 +6637,7 @@
         <v>446</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,7 +6648,7 @@
         <v>447</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,7 +6659,7 @@
         <v>448</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,7 +6670,7 @@
         <v>449</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,7 +6681,7 @@
         <v>450</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6689,7 +6692,7 @@
         <v>451</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6700,7 +6703,7 @@
         <v>452</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,7 +6714,7 @@
         <v>453</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6722,7 +6725,7 @@
         <v>454</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6736,7 @@
         <v>455</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6744,7 +6747,7 @@
         <v>456</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6755,7 +6758,7 @@
         <v>457</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,7 +6778,7 @@
         <v>459</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,7 +6789,7 @@
         <v>460</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,7 +6800,7 @@
         <v>461</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6808,7 +6811,7 @@
         <v>462</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6819,7 +6822,7 @@
         <v>463</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,7 +6833,7 @@
         <v>464</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,7 +6844,7 @@
         <v>465</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,7 +6855,7 @@
         <v>466</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,7 +6866,7 @@
         <v>467</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,7 +6877,7 @@
         <v>468</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6893,444 +6896,446 @@
     <hyperlink ref="B11" r:id="rId12" display="Find the Union and Intersection of the two sorted arrays."/>
     <hyperlink ref="E11" r:id="rId13" display="LINK"/>
     <hyperlink ref="B12" r:id="rId14" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId15" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId16" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId17" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId18" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId19" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId20" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId21" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId22" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId23" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId24" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId25" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId26" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId27" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId28" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId29" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId30" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId31" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId32" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId33" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId34" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId35" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId36" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId37" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId38" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId39" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId40" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId41" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId42" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId43" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId44" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId45" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId46" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId47" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId48" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId49" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId50" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId51" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId52" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId53" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId54" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId55" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId56" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId57" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId58" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId59" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId60" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId61" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId62" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId63" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId64" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId65" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId66" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId67" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId68" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId69" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId70" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId71" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId72" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId73" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId74" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId75" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId76" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId77" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId78" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId79" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId80" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId81" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId82" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId83" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId84" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId85" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId86" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId87" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId88" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId89" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId90" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId91" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId92" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId93" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId94" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId95" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId96" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId97" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId98" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId99" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId100" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId101" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId102" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId103" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId104" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId105" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId106" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId107" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId108" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId109" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId110" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId111" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId112" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId113" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId114" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId115" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId116" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId117" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId118" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId119" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId120" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId121" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId122" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId123" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId124" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId125" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId126" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId127" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId128" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId129" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId130" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId131" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId132" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId133" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId134" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId135" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId136" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId137" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId138" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId139" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId140" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId141" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId142" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId143" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId144" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId145" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId146" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId147" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId148" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId149" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId150" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId151" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId152" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId153" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId154" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId155" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId156" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId157" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId158" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId159" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId160" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId161" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId162" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId163" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId164" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId165" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId166" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId167" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId168" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId169" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId170" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId171" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId172" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId173" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId174" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId175" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId176" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId177" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId178" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId179" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId180" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId181" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId182" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId183" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId184" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId185" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId186" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId187" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId188" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId189" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId190" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId191" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId192" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId193" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId194" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId195" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId196" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId197" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId198" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId199" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId200" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId201" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId202" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId203" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId204" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId205" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId206" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId207" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId208" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId209" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId210" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId211" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId212" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId213" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId214" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId215" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId216" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId217" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId218" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId219" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId220" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId221" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId222" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId223" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId224" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId225" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId226" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId227" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId228" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId229" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId230" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId231" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId232" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId233" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId234" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId235" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId236" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId237" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId238" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId239" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId240" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId241" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId242" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId243" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId244" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId245" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId246" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId247" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId248" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId249" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId250" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId251" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId252" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId253" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId254" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId255" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId256" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId257" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId258" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId259" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId260" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId261" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId262" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId263" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId264" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId265" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId266" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId267" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId268" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId269" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId270" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId271" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId272" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId273" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId274" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId275" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId276" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId277" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId278" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId279" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId280" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId281" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId282" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId283" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId284" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId285" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId286" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId287" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId288" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId289" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId290" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId291" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId292" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId293" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId294" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId295" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId296" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId297" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId298" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId299" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId300" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId301" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId302" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId303" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId304" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId305" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId306" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId307" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId308" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId309" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId310" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId311" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId312" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId313" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId314" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId315" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId316" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId317" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId318" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId319" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId320" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId321" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId322" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId323" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId324" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId325" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId326" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId327" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId328" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId329" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId330" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId331" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId332" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId333" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId334" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId335" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId336" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId337" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId338" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId339" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId340" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId341" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId342" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId343" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId344" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId345" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId346" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId347" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId348" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId349" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId350" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId351" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId352" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId353" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId354" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId355" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId356" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId357" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId358" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId359" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId360" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId361" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId362" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId363" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId364" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId365" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId366" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId367" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId368" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId369" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId370" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId371" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId372" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId373" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId374" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId375" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId376" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId377" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId378" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId379" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId380" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId381" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId382" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId383" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId384" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId385" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId386" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId387" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId388" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId389" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId390" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId391" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId392" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId393" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId394" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId395" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId396" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId397" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId398" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId399" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId400" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId401" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId402" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId403" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId404" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId405" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId406" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId407" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId408" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId409" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId410" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId411" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId412" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId413" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId414" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId415" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId416" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId417" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId418" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId419" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId420" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId421" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId422" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId423" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId424" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId425" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId426" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId427" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId428" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId429" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId430" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId431" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId432" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId433" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId434" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId435" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId436" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId437" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId438" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId439" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId440" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId441" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId442" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId443" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId444" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId445" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId446" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId447" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId448" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId449" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId450" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId451" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId452" display="Power Set"/>
+    <hyperlink ref="E12" r:id="rId15" display="LINK"/>
+    <hyperlink ref="B13" r:id="rId16" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="E13" r:id="rId17" display="LINK"/>
+    <hyperlink ref="B14" r:id="rId18" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId19" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId20" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId21" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId22" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId23" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId24" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId25" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId26" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId27" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId28" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId29" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId30" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId31" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId32" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId33" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId34" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId35" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId36" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId37" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId38" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId39" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId40" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId41" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId42" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId43" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId44" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId45" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId46" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId47" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId48" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId49" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId50" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId51" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId52" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId53" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId54" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId55" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId56" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId57" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId58" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId59" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId60" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId61" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId62" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId63" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId64" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId65" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId66" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId67" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId68" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId69" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId70" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId71" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId72" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId73" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId74" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId75" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId76" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId77" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId78" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId79" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId80" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId81" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId82" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId83" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId84" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId85" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId86" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId87" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId88" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId89" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId90" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId91" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId92" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId93" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId94" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId95" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId96" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId97" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId98" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId99" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId100" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId101" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId102" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId103" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId104" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId105" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId106" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId107" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId108" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId109" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId110" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId111" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId112" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId113" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId114" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId115" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId116" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId117" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId118" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId119" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId120" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId121" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId122" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId123" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId124" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId125" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId126" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId127" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId128" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId129" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId130" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId131" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId132" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId133" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId134" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId135" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId136" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId137" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId138" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId139" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId140" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId141" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId142" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId143" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId144" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId145" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId146" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId147" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId148" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId149" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId150" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId151" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId152" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId153" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId154" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId155" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId156" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId157" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId158" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId159" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId160" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId161" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId162" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId163" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId164" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId165" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId166" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId167" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId168" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId169" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId170" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId171" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId172" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId173" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId174" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId175" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId176" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId177" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId178" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId179" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId180" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId181" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId182" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId183" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId184" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId185" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId186" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId187" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId188" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId189" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId190" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId191" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId192" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId193" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId194" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId195" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId196" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId197" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId198" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId199" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId200" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId201" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId202" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId203" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId204" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId205" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId206" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId207" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId208" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId209" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId210" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId211" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId212" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId213" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId214" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId215" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId216" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId217" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId218" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId219" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId220" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId221" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId222" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId223" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId224" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId225" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId226" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId227" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId228" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId229" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId230" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId231" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId232" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId233" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId234" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId235" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId236" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId237" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId238" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId239" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId240" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId241" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId242" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId243" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId244" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId245" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId246" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId247" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId248" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId249" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId250" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId251" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId252" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId253" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId254" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId255" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId256" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId257" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId258" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId259" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId260" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId261" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId262" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId263" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId264" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId265" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId266" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId267" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId268" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId269" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId270" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId271" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId272" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId273" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId274" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId275" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId276" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId277" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId278" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId279" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId280" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId281" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId282" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId283" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId284" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId285" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId286" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId287" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId288" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId289" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId290" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId291" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId292" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId293" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId294" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId295" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId296" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId297" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId298" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId299" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId300" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId301" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId302" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId303" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId304" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId305" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId306" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId307" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId308" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId309" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId310" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId311" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId312" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId313" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId314" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId315" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId316" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId317" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId318" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId319" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId320" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId321" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId322" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId323" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId324" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId325" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId326" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId327" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId328" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId329" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId330" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId331" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId332" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId333" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId334" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId335" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId336" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId337" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId338" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId339" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId340" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId341" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId342" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId343" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId344" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId345" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId346" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId347" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId348" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId349" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId350" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId351" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId352" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId353" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId354" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId355" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId356" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId357" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId358" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId359" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId360" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId361" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId362" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId363" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId364" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId365" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId366" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId367" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId368" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId369" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId370" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId371" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId372" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId373" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId374" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId375" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId376" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId377" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId378" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId379" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId380" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId381" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId382" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId383" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId384" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId385" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId386" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId387" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId388" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId389" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId390" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId391" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId392" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId393" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId394" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId395" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId396" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId397" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId398" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId399" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId400" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId401" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId402" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId403" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId404" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId405" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId406" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId407" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId408" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId409" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId410" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId411" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId412" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId413" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId414" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId415" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId416" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId417" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId418" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId419" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId420" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId421" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId422" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId423" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId424" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId425" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId426" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId427" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId428" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId429" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId430" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId431" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId432" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId433" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId434" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId435" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId436" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId437" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId438" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId439" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId440" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId441" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId442" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId443" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId444" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId445" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId446" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId447" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId448" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId449" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId450" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId451" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId452" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId453" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId454" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
